--- a/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
+++ b/InputData/endo-learn/SYSoCCtaSC/Start Yr Shares of Capacity Costs that are Soft Costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\endo-learn\SYSoCCtaSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2AA02-27FC-41E2-A128-5F9185E7D892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36812C60-10F4-471D-A279-B5D2C888C3D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="405" windowWidth="24435" windowHeight="16275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="285" windowWidth="22170" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1492,7 +1492,7 @@
       <c r="A2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="13">
         <f>AVERAGE(Data!B64:B65)</f>
         <v>0.63500000000000001</v>
       </c>
